--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Spon2</t>
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H2">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I2">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J2">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>13.51934751794667</v>
+        <v>15.77414224797111</v>
       </c>
       <c r="R2">
-        <v>121.67412766152</v>
+        <v>141.96728023174</v>
       </c>
       <c r="S2">
-        <v>0.009402119586614747</v>
+        <v>0.01005280462814892</v>
       </c>
       <c r="T2">
-        <v>0.009402119586614743</v>
+        <v>0.01005280462814891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H3">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I3">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J3">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>13.048945682794</v>
+        <v>13.46356353331333</v>
       </c>
       <c r="R3">
-        <v>117.440511145146</v>
+        <v>121.17207179982</v>
       </c>
       <c r="S3">
-        <v>0.009074975521267119</v>
+        <v>0.008580281049289871</v>
       </c>
       <c r="T3">
-        <v>0.009074975521267117</v>
+        <v>0.008580281049289866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H4">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I4">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J4">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>2.640788315815999</v>
+        <v>4.011049799731111</v>
       </c>
       <c r="R4">
-        <v>23.767094842344</v>
+        <v>36.09944819758</v>
       </c>
       <c r="S4">
-        <v>0.001836553688354927</v>
+        <v>0.002556227740095281</v>
       </c>
       <c r="T4">
-        <v>0.001836553688354926</v>
+        <v>0.00255622774009528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H5">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I5">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J5">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>8.353822997268001</v>
+        <v>7.994822697144444</v>
       </c>
       <c r="R5">
-        <v>75.184406975412</v>
+        <v>71.9534042743</v>
       </c>
       <c r="S5">
-        <v>0.005809721417506359</v>
+        <v>0.005095072007571188</v>
       </c>
       <c r="T5">
-        <v>0.005809721417506356</v>
+        <v>0.005095072007571187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>47.284298</v>
       </c>
       <c r="I6">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J6">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>488.4722267847022</v>
+        <v>552.3893492715891</v>
       </c>
       <c r="R6">
-        <v>4396.25004106232</v>
+        <v>4971.504143444303</v>
       </c>
       <c r="S6">
-        <v>0.3397112386432174</v>
+        <v>0.3520357633146005</v>
       </c>
       <c r="T6">
-        <v>0.3397112386432173</v>
+        <v>0.3520357633146004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>47.284298</v>
       </c>
       <c r="I7">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J7">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>471.4759751833873</v>
@@ -883,10 +883,10 @@
         <v>4243.283776650486</v>
       </c>
       <c r="S7">
-        <v>0.32789108313145</v>
+        <v>0.3004699584216187</v>
       </c>
       <c r="T7">
-        <v>0.32789108313145</v>
+        <v>0.3004699584216186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>47.284298</v>
       </c>
       <c r="I8">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J8">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>95.41523711712264</v>
+        <v>140.4615955618371</v>
       </c>
       <c r="R8">
-        <v>858.7371340541039</v>
+        <v>1264.154360056534</v>
       </c>
       <c r="S8">
-        <v>0.06635715729398178</v>
+        <v>0.08951567418018144</v>
       </c>
       <c r="T8">
-        <v>0.06635715729398177</v>
+        <v>0.08951567418018143</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>47.284298</v>
       </c>
       <c r="I9">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J9">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>301.834871558988</v>
+        <v>279.9679905121544</v>
       </c>
       <c r="R9">
-        <v>2716.513844030892</v>
+        <v>2519.71191460939</v>
       </c>
       <c r="S9">
-        <v>0.2099130563838874</v>
+        <v>0.1784226024154269</v>
       </c>
       <c r="T9">
-        <v>0.2099130563838874</v>
+        <v>0.1784226024154268</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H10">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I10">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J10">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>15.52769703678667</v>
+        <v>31.63353023823144</v>
       </c>
       <c r="R10">
-        <v>139.74927333108</v>
+        <v>284.701772144083</v>
       </c>
       <c r="S10">
-        <v>0.01079883953354912</v>
+        <v>0.02015993606400272</v>
       </c>
       <c r="T10">
-        <v>0.01079883953354912</v>
+        <v>0.02015993606400271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H11">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I11">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J11">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>14.987415253801</v>
+        <v>26.99988610792433</v>
       </c>
       <c r="R11">
-        <v>134.886737284209</v>
+        <v>242.998974971319</v>
       </c>
       <c r="S11">
-        <v>0.01042309699661401</v>
+        <v>0.0172069311762512</v>
       </c>
       <c r="T11">
-        <v>0.01042309699661401</v>
+        <v>0.0172069311762512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H12">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I12">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J12">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>3.033087273764</v>
+        <v>8.043775891723444</v>
       </c>
       <c r="R12">
-        <v>27.297785463876</v>
+        <v>72.39398302551099</v>
       </c>
       <c r="S12">
-        <v>0.002109380591534619</v>
+        <v>0.00512626970398411</v>
       </c>
       <c r="T12">
-        <v>0.002109380591534618</v>
+        <v>0.005126269703984107</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9026056666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.707817</v>
+      </c>
+      <c r="I13">
+        <v>0.05271081546417152</v>
+      </c>
+      <c r="J13">
+        <v>0.05271081546417151</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.76285166666667</v>
+      </c>
+      <c r="N13">
+        <v>53.288555</v>
+      </c>
+      <c r="O13">
+        <v>0.1938440608432367</v>
+      </c>
+      <c r="P13">
+        <v>0.1938440608432367</v>
+      </c>
+      <c r="Q13">
+        <v>16.03285057049278</v>
+      </c>
+      <c r="R13">
+        <v>144.295655134435</v>
+      </c>
+      <c r="S13">
+        <v>0.01021767851993349</v>
+      </c>
+      <c r="T13">
+        <v>0.01021767851993348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5010290000000001</v>
-      </c>
-      <c r="H13">
-        <v>1.503087</v>
-      </c>
-      <c r="I13">
-        <v>0.0300040943337204</v>
-      </c>
-      <c r="J13">
-        <v>0.0300040943337204</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>19.150218</v>
-      </c>
-      <c r="N13">
-        <v>57.45065400000001</v>
-      </c>
-      <c r="O13">
-        <v>0.2223955550134164</v>
-      </c>
-      <c r="P13">
-        <v>0.2223955550134164</v>
-      </c>
-      <c r="Q13">
-        <v>9.594814574322003</v>
-      </c>
-      <c r="R13">
-        <v>86.35333116889801</v>
-      </c>
-      <c r="S13">
-        <v>0.006672777212022652</v>
-      </c>
-      <c r="T13">
-        <v>0.006672777212022649</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.009603</v>
+      </c>
+      <c r="H14">
+        <v>0.028809</v>
+      </c>
+      <c r="I14">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J14">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>35.04689966666667</v>
+      </c>
+      <c r="N14">
+        <v>105.140699</v>
+      </c>
+      <c r="O14">
+        <v>0.3824629895491901</v>
+      </c>
+      <c r="P14">
+        <v>0.3824629895491901</v>
+      </c>
+      <c r="Q14">
+        <v>0.3365553774990001</v>
+      </c>
+      <c r="R14">
+        <v>3.028998397491001</v>
+      </c>
+      <c r="S14">
+        <v>0.0002144855424380061</v>
+      </c>
+      <c r="T14">
+        <v>0.000214485542438006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.009603</v>
+      </c>
+      <c r="H15">
+        <v>0.028809</v>
+      </c>
+      <c r="I15">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J15">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.913269</v>
+      </c>
+      <c r="N15">
+        <v>89.739807</v>
+      </c>
+      <c r="O15">
+        <v>0.3264402385872224</v>
+      </c>
+      <c r="P15">
+        <v>0.3264402385872223</v>
+      </c>
+      <c r="Q15">
+        <v>0.287257122207</v>
+      </c>
+      <c r="R15">
+        <v>2.585314099863</v>
+      </c>
+      <c r="S15">
+        <v>0.0001830679400626486</v>
+      </c>
+      <c r="T15">
+        <v>0.0001830679400626485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.009603</v>
+      </c>
+      <c r="H16">
+        <v>0.028809</v>
+      </c>
+      <c r="I16">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J16">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.911727666666666</v>
+      </c>
+      <c r="N16">
+        <v>26.735183</v>
+      </c>
+      <c r="O16">
+        <v>0.09725271102035077</v>
+      </c>
+      <c r="P16">
+        <v>0.09725271102035075</v>
+      </c>
+      <c r="Q16">
+        <v>0.085579320783</v>
+      </c>
+      <c r="R16">
+        <v>0.770213887047</v>
+      </c>
+      <c r="S16">
+        <v>5.45393960899419E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.453939608994188E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.009603</v>
+      </c>
+      <c r="H17">
+        <v>0.028809</v>
+      </c>
+      <c r="I17">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J17">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.76285166666667</v>
+      </c>
+      <c r="N17">
+        <v>53.288555</v>
+      </c>
+      <c r="O17">
+        <v>0.1938440608432367</v>
+      </c>
+      <c r="P17">
+        <v>0.1938440608432367</v>
+      </c>
+      <c r="Q17">
+        <v>0.170576664555</v>
+      </c>
+      <c r="R17">
+        <v>1.535189980995</v>
+      </c>
+      <c r="S17">
+        <v>0.0001087079003052141</v>
+      </c>
+      <c r="T17">
+        <v>0.000108707900305214</v>
       </c>
     </row>
   </sheetData>
